--- a/称重月报汇总.xlsx
+++ b/称重月报汇总.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/入厂煤/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_43A5179A5B10D93BA7F92C11595ED87656CD37F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0514D232-BB98-4611-A79C-EAC1A5CEC63A}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>序号</t>
   </si>
@@ -62,174 +43,285 @@
     <t>2025-01</t>
   </si>
   <si>
+    <t>2025-02</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司（10-1宝特）</t>
   </si>
   <si>
+    <t>大同煤矿集团朔煤小峪煤业有限公司（11-1宝特）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（1-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团金辛达煤业（1-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（12-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（11-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（10-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（2-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（12-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（2-1）</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团四明山煤业有限公司</t>
+  </si>
+  <si>
     <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
+    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>2025-01-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>2025-01-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-01-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团四明山煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-02-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
     <t>山西吉泽物流有限公司</t>
   </si>
   <si>
+    <t>山西得得供应链管理有限公司</t>
+  </si>
+  <si>
+    <t>山西焦煤物流有限责任公司</t>
+  </si>
+  <si>
+    <t>晋能快成物流科技有限公司</t>
+  </si>
+  <si>
+    <t>富康源煤业</t>
+  </si>
+  <si>
+    <t>山西广茂原物流贸易有限公司</t>
+  </si>
+  <si>
+    <t>晋城市华煜物流配送有限公司</t>
+  </si>
+  <si>
     <t>120车</t>
   </si>
   <si>
-    <t>大同煤矿集团朔煤小峪煤业有限公司（11-1宝特）</t>
-  </si>
-  <si>
     <t>200车</t>
   </si>
   <si>
-    <t>晋能控股煤业集团翼城华泓煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司</t>
-  </si>
-  <si>
-    <t>山西得得供应链管理有限公司</t>
-  </si>
-  <si>
     <t>946车</t>
   </si>
   <si>
-    <t>山西汾河焦煤股份有限公司三交河煤矿（1-1）</t>
-  </si>
-  <si>
-    <t>山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-01-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>山西焦煤物流有限责任公司</t>
-  </si>
-  <si>
     <t>81车</t>
   </si>
   <si>
-    <t>山西焦煤霍州煤电雪坪煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
     <t>91车</t>
   </si>
   <si>
-    <t>山西焦煤集团金辛达煤业（1-1）</t>
-  </si>
-  <si>
-    <t>山西焦煤集团金辛达煤业</t>
-  </si>
-  <si>
-    <t>2025-01-山西焦煤集团金辛达煤业</t>
-  </si>
-  <si>
     <t>17车</t>
   </si>
   <si>
-    <t>山西煤炭运销集团莲盛有限公司（12-1火车）</t>
-  </si>
-  <si>
-    <t>山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
     <t>2523车</t>
   </si>
   <si>
-    <t>山西煤炭运销集团野川有限公司（12-1）</t>
-  </si>
-  <si>
-    <t>山西煤炭运销集团野川有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西煤炭运销集团野川有限公司</t>
-  </si>
-  <si>
-    <t>晋能快成物流科技有限公司</t>
-  </si>
-  <si>
     <t>9车</t>
   </si>
   <si>
-    <t>山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
-    <t>富康源煤业</t>
-  </si>
-  <si>
     <t>48车</t>
   </si>
   <si>
-    <t>太原煤气化龙泉能源（11-1宝特火车）</t>
-  </si>
-  <si>
-    <t>太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-01-太原煤气化龙泉能源</t>
-  </si>
-  <si>
     <t>184车</t>
   </si>
   <si>
-    <t>阳泉煤业集团翼城山凹煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
-    <t>山西广茂原物流贸易有限公司</t>
-  </si>
-  <si>
     <t>491车</t>
+  </si>
+  <si>
+    <t>417车</t>
+  </si>
+  <si>
+    <t>236车</t>
+  </si>
+  <si>
+    <t>397车</t>
+  </si>
+  <si>
+    <t>51车</t>
+  </si>
+  <si>
+    <t>156车</t>
+  </si>
+  <si>
+    <t>61车</t>
+  </si>
+  <si>
+    <t>75车</t>
+  </si>
+  <si>
+    <t>64车</t>
+  </si>
+  <si>
+    <t>22车</t>
+  </si>
+  <si>
+    <t>484车</t>
+  </si>
+  <si>
+    <t>344车</t>
+  </si>
+  <si>
+    <t>399车</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,18 +367,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -574,22 +658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,25 +699,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>3442.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -649,25 +725,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>5756.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -675,25 +751,25 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -701,25 +777,25 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>2502.7600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -727,25 +803,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -753,25 +829,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H7">
         <v>523.46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -779,25 +855,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H8">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -805,25 +881,25 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>266.44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -831,25 +907,25 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -857,25 +933,25 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H11">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -883,26 +959,363 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>15211.08</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13">
+        <v>12060.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>6886.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15">
+        <v>12431.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>1580.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18">
+        <v>1958.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19">
+        <v>2386.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>544.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <v>699.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23">
+        <v>14204.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24">
+        <v>9893.879999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25">
+        <v>12402.83</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/称重月报汇总.xlsx
+++ b/称重月报汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -85,6 +85,9 @@
     <t>大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团朔煤小峪煤业有限公司（12-1宝特）</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
   </si>
   <si>
@@ -94,18 +97,33 @@
     <t>山西焦煤霍州煤电雪坪煤业有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西焦煤集团金辛达煤业（2-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤物流有限责任公司（2-1）</t>
+  </si>
+  <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（1-1）</t>
   </si>
   <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西煤炭运销集团莲盛有限公司（11-1火车）</t>
+  </si>
+  <si>
     <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
   </si>
   <si>
     <t>山西煤炭运销集团野川有限公司（2-1）</t>
   </si>
   <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（12-1宝特）</t>
+  </si>
+  <si>
     <t>太原煤气化龙泉能源（12-1宝特火车）</t>
   </si>
   <si>
@@ -145,12 +163,18 @@
     <t>大同煤矿集团北辛窑煤业有限公司</t>
   </si>
   <si>
+    <t>山西焦煤物流有限责任公司</t>
+  </si>
+  <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
   </si>
   <si>
     <t>山西煤炭运销集团四明山煤业有限公司</t>
   </si>
   <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
     <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
@@ -184,6 +208,9 @@
     <t>2025-02-大同煤矿集团北辛窑煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司</t>
+  </si>
+  <si>
     <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司</t>
   </si>
   <si>
@@ -196,9 +223,15 @@
     <t>2025-02-山西焦煤集团金辛达煤业</t>
   </si>
   <si>
+    <t>2025-02-山西焦煤物流有限责任公司</t>
+  </si>
+  <si>
     <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
   </si>
   <si>
+    <t>2025-02-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
     <t>2025-02-山西煤炭运销集团四明山煤业有限公司</t>
   </si>
   <si>
@@ -208,6 +241,9 @@
     <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
     <t>2025-02-太原煤气化龙泉能源</t>
   </si>
   <si>
@@ -220,9 +256,6 @@
     <t>山西得得供应链管理有限公司</t>
   </si>
   <si>
-    <t>山西焦煤物流有限责任公司</t>
-  </si>
-  <si>
     <t>晋能快成物流科技有限公司</t>
   </si>
   <si>
@@ -271,13 +304,22 @@
     <t>417车</t>
   </si>
   <si>
-    <t>236车</t>
-  </si>
-  <si>
-    <t>397车</t>
-  </si>
-  <si>
-    <t>51车</t>
+    <t>986车</t>
+  </si>
+  <si>
+    <t>15车</t>
+  </si>
+  <si>
+    <t>52车</t>
+  </si>
+  <si>
+    <t>233车</t>
+  </si>
+  <si>
+    <t>909车</t>
+  </si>
+  <si>
+    <t>80车</t>
   </si>
   <si>
     <t>156车</t>
@@ -286,22 +328,37 @@
     <t>61车</t>
   </si>
   <si>
+    <t>78车</t>
+  </si>
+  <si>
+    <t>60车</t>
+  </si>
+  <si>
     <t>75车</t>
   </si>
   <si>
+    <t>130车</t>
+  </si>
+  <si>
     <t>64车</t>
   </si>
   <si>
-    <t>22车</t>
-  </si>
-  <si>
-    <t>484车</t>
-  </si>
-  <si>
-    <t>344车</t>
-  </si>
-  <si>
-    <t>399车</t>
+    <t>28车</t>
+  </si>
+  <si>
+    <t>625车</t>
+  </si>
+  <si>
+    <t>322车</t>
+  </si>
+  <si>
+    <t>374车</t>
+  </si>
+  <si>
+    <t>514车</t>
+  </si>
+  <si>
+    <t>879车</t>
   </si>
 </sst>
 </file>
@@ -659,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,16 +759,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>3442.2</v>
@@ -728,16 +785,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>5756.2</v>
@@ -754,16 +811,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>29184.35</v>
@@ -780,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H5">
         <v>2502.76</v>
@@ -806,16 +863,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>2876.64</v>
@@ -832,16 +889,16 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>523.46</v>
@@ -858,16 +915,16 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>72967.52</v>
@@ -884,16 +941,16 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>266.44</v>
@@ -910,16 +967,16 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H10">
         <v>1394.18</v>
@@ -936,16 +993,16 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H11">
         <v>5264.84</v>
@@ -962,16 +1019,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H12">
         <v>15211.08</v>
@@ -988,16 +1045,16 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H13">
         <v>12060.04</v>
@@ -1014,19 +1071,19 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H14">
-        <v>6886.96</v>
+        <v>28856.62</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1037,22 +1094,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H15">
-        <v>12431.74</v>
+        <v>425.04</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1063,22 +1120,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H16">
-        <v>1580.68</v>
+        <v>1500.5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1089,22 +1146,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H17">
-        <v>4962.66</v>
+        <v>6664.68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1115,22 +1172,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>1958.84</v>
+        <v>28546.61</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1141,22 +1198,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H19">
-        <v>2386.82</v>
+        <v>2480.22</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1167,22 +1224,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H20">
-        <v>544.9</v>
+        <v>4962.66</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1193,22 +1250,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H21">
-        <v>1967.76</v>
+        <v>1958.84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1219,22 +1276,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H22">
-        <v>699.98</v>
+        <v>2485.74</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1245,22 +1302,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H23">
-        <v>14204.72</v>
+        <v>1910.78</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1271,22 +1328,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H24">
-        <v>9893.879999999999</v>
+        <v>2386.82</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1297,22 +1354,282 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25">
+        <v>544.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25">
-        <v>12402.83</v>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26">
+        <v>2181.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27">
+        <v>3809.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31">
+        <v>9279.440000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32">
+        <v>10732.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33">
+        <v>492.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34">
+        <v>14773.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35">
+        <v>27072.19</v>
       </c>
     </row>
   </sheetData>

--- a/称重月报汇总.xlsx
+++ b/称重月报汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="366">
   <si>
     <t>序号</t>
   </si>
@@ -40,12 +40,156 @@
     <t>重量</t>
   </si>
   <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
     <t>2025-01</t>
   </si>
   <si>
     <t>2025-02</t>
   </si>
   <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团朔煤小峪煤业有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>晋能控股集团沁秀公司坪上煤业（10-1）</t>
+  </si>
+  <si>
+    <t>晋能控股集团盛泰煤业有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团国际贸易有限责任公司（10-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团金辛达煤业（10-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团晋圣亿欣煤业有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（10-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团神农煤业有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>山西蒲县华胜煤业有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（10-1火车）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（9-1火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（10-1）</t>
+  </si>
+  <si>
+    <t>晋能控股集团沁秀公司坪上煤业（11-1）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团沁水胡底煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团国际贸易有限责任公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团晋圣亿欣煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（11-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团神农煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团四明山煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>山西蒲县华胜煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（11-1）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（10-1火车）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团沁水胡底煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团国际贸易有限责任公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（12-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团神农煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西蒲县华胜煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（11-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（12-1）</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司（10-1宝特）</t>
   </si>
   <si>
@@ -64,24 +208,12 @@
     <t>山西焦煤集团金辛达煤业（1-1）</t>
   </si>
   <si>
-    <t>山西煤炭运销集团莲盛有限公司（12-1火车）</t>
-  </si>
-  <si>
-    <t>山西煤炭运销集团野川有限公司（12-1）</t>
-  </si>
-  <si>
     <t>山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
   </si>
   <si>
-    <t>太原煤气化龙泉能源（11-1宝特火车）</t>
-  </si>
-  <si>
     <t>阳泉煤业集团翼城山凹煤业有限公司（1-1）</t>
   </si>
   <si>
-    <t>大同煤矿集团北辛窑煤业有限公司（10-1火车）</t>
-  </si>
-  <si>
     <t>大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
   </si>
   <si>
@@ -109,18 +241,12 @@
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
   </si>
   <si>
-    <t>山西煤炭运销集团莲盛有限公司（11-1火车）</t>
-  </si>
-  <si>
     <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
   </si>
   <si>
     <t>山西煤炭运销集团野川有限公司（2-1）</t>
   </si>
   <si>
-    <t>太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
-  </si>
-  <si>
     <t>太原煤气化股份有限公司炉峪口煤矿（12-1宝特）</t>
   </si>
   <si>
@@ -130,49 +256,310 @@
     <t>阳泉煤业集团翼城山凹煤业有限公司（2-1）</t>
   </si>
   <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（3-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（3-1）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（3-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业（3-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（2-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（3-1火车）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（3-1宝特）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（1-1宝特火车）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（2-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（4-1火车）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（4-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（4-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业（4-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（3-1宝特火车）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（4-1宝特火车）</t>
+  </si>
+  <si>
+    <t>忻州公司王家岭煤业（3-1）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城东沟煤业有限公司（4-1）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（5-1火车）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（5-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（5-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（4-1火车）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（5-1宝特火车）</t>
+  </si>
+  <si>
+    <t>忻州公司王家岭煤业（4-1）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（6-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（6-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（7-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司（6-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（7-1宝特火车）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（7-2宝特火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
+    <t>晋能控股集团沁秀公司坪上煤业</t>
+  </si>
+  <si>
+    <t>晋能控股集团盛泰煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西焦煤集团国际贸易有限责任公司</t>
+  </si>
+  <si>
+    <t>山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>山西晋煤集团晋圣亿欣煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团神农煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>山西蒲县华胜煤业有限公司</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团沁水胡底煤业有限公司</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
   </si>
   <si>
+    <t>山西煤炭运销集团四明山煤业有限公司</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
     <t>山西汾河焦煤股份有限公司三交河煤矿</t>
   </si>
   <si>
-    <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>山西焦煤集团金辛达煤业</t>
-  </si>
-  <si>
-    <t>山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>山西煤炭运销集团野川有限公司</t>
-  </si>
-  <si>
     <t>山西乡宁焦煤集团富康源煤业有限公司</t>
   </si>
   <si>
-    <t>太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
-    <t>大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
     <t>山西焦煤物流有限责任公司</t>
   </si>
   <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
   </si>
   <si>
-    <t>山西煤炭运销集团四明山煤业有限公司</t>
-  </si>
-  <si>
-    <t>太原煤气化股份有限公司炉峪口煤矿</t>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业</t>
+  </si>
+  <si>
+    <t>忻州公司王家岭煤业</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城东沟煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-大同煤矿集团朔煤小峪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-晋能控股集团沁秀公司坪上煤业</t>
+  </si>
+  <si>
+    <t>2024-10-晋能控股集团盛泰煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西焦煤集团国际贸易有限责任公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>2024-10-山西晋煤集团晋圣亿欣煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西煤炭运销集团神农煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-山西蒲县华胜煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-10-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2024-10-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-晋能控股集团沁秀公司坪上煤业</t>
+  </si>
+  <si>
+    <t>2024-11-晋能控股煤业集团沁水胡底煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西焦煤集团国际贸易有限责任公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西晋煤集团晋圣亿欣煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西煤炭运销集团神农煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西煤炭运销集团四明山煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-山西蒲县华胜煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-11-太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
+    <t>2024-11-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2024-11-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-晋能控股煤业集团沁水胡底煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-山西焦煤集团国际贸易有限责任公司</t>
+  </si>
+  <si>
+    <t>2024-12-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-山西煤炭运销集团神农煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-山西蒲县华胜煤业有限公司</t>
+  </si>
+  <si>
+    <t>2024-12-太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
+    <t>2024-12-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2024-12-阳泉煤业集团翼城山凹煤业有限公司</t>
   </si>
   <si>
     <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
@@ -250,15 +637,129 @@
     <t>2025-02-阳泉煤业集团翼城山凹煤业有限公司</t>
   </si>
   <si>
+    <t>2025-03-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-03-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
+  </si>
+  <si>
+    <t>2025-03-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-03-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>2025-03-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-03-山西焦煤集团杜家沟煤业</t>
+  </si>
+  <si>
+    <t>2025-03-山西焦煤物流有限责任公司</t>
+  </si>
+  <si>
+    <t>2025-03-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+  </si>
+  <si>
+    <t>2025-03-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-03-太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
+    <t>2025-03-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-03-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-04-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-04-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>2025-04-山西焦煤汾西矿业昊兴塬煤业</t>
+  </si>
+  <si>
+    <t>2025-04-山西焦煤集团杜家沟煤业</t>
+  </si>
+  <si>
+    <t>2025-04-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-04-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-04-忻州公司王家岭煤业</t>
+  </si>
+  <si>
+    <t>2025-04-阳泉煤业集团翼城东沟煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-05-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-05-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>2025-05-山西焦煤汾西矿业昊兴塬煤业</t>
+  </si>
+  <si>
+    <t>2025-05-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-05-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-05-忻州公司王家岭煤业</t>
+  </si>
+  <si>
+    <t>2025-06-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-06-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
+  </si>
+  <si>
+    <t>2025-06-山西焦煤汾西矿业昊兴塬煤业</t>
+  </si>
+  <si>
+    <t>2025-06-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-06-山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-06-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
+  </si>
+  <si>
+    <t>2025-07-山西焦煤汾西矿业昊兴塬煤业</t>
+  </si>
+  <si>
+    <t>2025-07-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-07-山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-07-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>晋能快成物流科技有限公司</t>
+  </si>
+  <si>
     <t>山西吉泽物流有限公司</t>
   </si>
   <si>
     <t>山西得得供应链管理有限公司</t>
   </si>
   <si>
-    <t>晋能快成物流科技有限公司</t>
-  </si>
-  <si>
     <t>富康源煤业</t>
   </si>
   <si>
@@ -268,6 +769,150 @@
     <t>晋城市华煜物流配送有限公司</t>
   </si>
   <si>
+    <t>山西生万物流有限公司</t>
+  </si>
+  <si>
+    <t>曲沃县丰亨达运输有限公司</t>
+  </si>
+  <si>
+    <t>山西恒利慧宇科技有限公司</t>
+  </si>
+  <si>
+    <t>山西冠文新能源汽车服务有限公司</t>
+  </si>
+  <si>
+    <t>546车</t>
+  </si>
+  <si>
+    <t>106车</t>
+  </si>
+  <si>
+    <t>350车</t>
+  </si>
+  <si>
+    <t>35车</t>
+  </si>
+  <si>
+    <t>80车</t>
+  </si>
+  <si>
+    <t>735车</t>
+  </si>
+  <si>
+    <t>18车</t>
+  </si>
+  <si>
+    <t>187车</t>
+  </si>
+  <si>
+    <t>415车</t>
+  </si>
+  <si>
+    <t>62车</t>
+  </si>
+  <si>
+    <t>1078车</t>
+  </si>
+  <si>
+    <t>336车</t>
+  </si>
+  <si>
+    <t>318车</t>
+  </si>
+  <si>
+    <t>635车</t>
+  </si>
+  <si>
+    <t>600车</t>
+  </si>
+  <si>
+    <t>160车</t>
+  </si>
+  <si>
+    <t>461车</t>
+  </si>
+  <si>
+    <t>394车</t>
+  </si>
+  <si>
+    <t>93车</t>
+  </si>
+  <si>
+    <t>942车</t>
+  </si>
+  <si>
+    <t>199车</t>
+  </si>
+  <si>
+    <t>795车</t>
+  </si>
+  <si>
+    <t>247车</t>
+  </si>
+  <si>
+    <t>9车</t>
+  </si>
+  <si>
+    <t>86车</t>
+  </si>
+  <si>
+    <t>95车</t>
+  </si>
+  <si>
+    <t>47车</t>
+  </si>
+  <si>
+    <t>768车</t>
+  </si>
+  <si>
+    <t>151车</t>
+  </si>
+  <si>
+    <t>838车</t>
+  </si>
+  <si>
+    <t>889车</t>
+  </si>
+  <si>
+    <t>243车</t>
+  </si>
+  <si>
+    <t>163车</t>
+  </si>
+  <si>
+    <t>1452车</t>
+  </si>
+  <si>
+    <t>154车</t>
+  </si>
+  <si>
+    <t>664车</t>
+  </si>
+  <si>
+    <t>1396车</t>
+  </si>
+  <si>
+    <t>980车</t>
+  </si>
+  <si>
+    <t>127车</t>
+  </si>
+  <si>
+    <t>57车</t>
+  </si>
+  <si>
+    <t>198车</t>
+  </si>
+  <si>
+    <t>67车</t>
+  </si>
+  <si>
+    <t>155车</t>
+  </si>
+  <si>
+    <t>1225车</t>
+  </si>
+  <si>
     <t>120车</t>
   </si>
   <si>
@@ -289,9 +934,6 @@
     <t>2523车</t>
   </si>
   <si>
-    <t>9车</t>
-  </si>
-  <si>
     <t>48车</t>
   </si>
   <si>
@@ -316,10 +958,10 @@
     <t>233车</t>
   </si>
   <si>
-    <t>909车</t>
-  </si>
-  <si>
-    <t>80车</t>
+    <t>1029车</t>
+  </si>
+  <si>
+    <t>161车</t>
   </si>
   <si>
     <t>156车</t>
@@ -331,34 +973,145 @@
     <t>78车</t>
   </si>
   <si>
+    <t>333车</t>
+  </si>
+  <si>
+    <t>75车</t>
+  </si>
+  <si>
+    <t>130车</t>
+  </si>
+  <si>
+    <t>64车</t>
+  </si>
+  <si>
+    <t>28车</t>
+  </si>
+  <si>
+    <t>625车</t>
+  </si>
+  <si>
+    <t>322车</t>
+  </si>
+  <si>
+    <t>374车</t>
+  </si>
+  <si>
+    <t>514车</t>
+  </si>
+  <si>
+    <t>885车</t>
+  </si>
+  <si>
+    <t>372车</t>
+  </si>
+  <si>
+    <t>617车</t>
+  </si>
+  <si>
+    <t>410车</t>
+  </si>
+  <si>
+    <t>101车</t>
+  </si>
+  <si>
+    <t>312车</t>
+  </si>
+  <si>
+    <t>39车</t>
+  </si>
+  <si>
+    <t>1823车</t>
+  </si>
+  <si>
+    <t>563车</t>
+  </si>
+  <si>
+    <t>125车</t>
+  </si>
+  <si>
+    <t>381车</t>
+  </si>
+  <si>
+    <t>352车</t>
+  </si>
+  <si>
+    <t>1572车</t>
+  </si>
+  <si>
+    <t>325车</t>
+  </si>
+  <si>
+    <t>677车</t>
+  </si>
+  <si>
+    <t>265车</t>
+  </si>
+  <si>
+    <t>495车</t>
+  </si>
+  <si>
+    <t>118车</t>
+  </si>
+  <si>
+    <t>782车</t>
+  </si>
+  <si>
+    <t>66车</t>
+  </si>
+  <si>
+    <t>844车</t>
+  </si>
+  <si>
+    <t>1248车</t>
+  </si>
+  <si>
+    <t>69车</t>
+  </si>
+  <si>
+    <t>162车</t>
+  </si>
+  <si>
+    <t>218车</t>
+  </si>
+  <si>
+    <t>681车</t>
+  </si>
+  <si>
+    <t>2车</t>
+  </si>
+  <si>
+    <t>259车</t>
+  </si>
+  <si>
+    <t>578车</t>
+  </si>
+  <si>
+    <t>128车</t>
+  </si>
+  <si>
+    <t>317车</t>
+  </si>
+  <si>
+    <t>16车</t>
+  </si>
+  <si>
+    <t>13车</t>
+  </si>
+  <si>
+    <t>72车</t>
+  </si>
+  <si>
+    <t>102车</t>
+  </si>
+  <si>
+    <t>190车</t>
+  </si>
+  <si>
+    <t>113车</t>
+  </si>
+  <si>
     <t>60车</t>
-  </si>
-  <si>
-    <t>75车</t>
-  </si>
-  <si>
-    <t>130车</t>
-  </si>
-  <si>
-    <t>64车</t>
-  </si>
-  <si>
-    <t>28车</t>
-  </si>
-  <si>
-    <t>625车</t>
-  </si>
-  <si>
-    <t>322车</t>
-  </si>
-  <si>
-    <t>374车</t>
-  </si>
-  <si>
-    <t>514车</t>
-  </si>
-  <si>
-    <t>879车</t>
   </si>
 </sst>
 </file>
@@ -716,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,22 +1509,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="H2">
-        <v>3442.2</v>
+        <v>15769.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -782,22 +1535,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="H3">
-        <v>5756.2</v>
+        <v>3075.84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -808,22 +1561,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="H4">
-        <v>29184.35</v>
+        <v>10918.16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -834,22 +1587,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="H5">
-        <v>2502.76</v>
+        <v>1082.94</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -860,22 +1613,22 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="H6">
-        <v>2876.64</v>
+        <v>2468.84</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -886,22 +1639,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="H7">
-        <v>523.46</v>
+        <v>22748.55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -912,22 +1665,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="H8">
-        <v>72967.52</v>
+        <v>528.74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -938,22 +1691,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="H9">
-        <v>266.44</v>
+        <v>5767.56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -964,22 +1717,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="H10">
-        <v>1394.18</v>
+        <v>11977.36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -990,22 +1743,22 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="H11">
-        <v>5264.84</v>
+        <v>1957.22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1016,620 +1769,3168 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="H12">
-        <v>15211.08</v>
+        <v>1958.6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="H13">
-        <v>12060.04</v>
+        <v>34538.77</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="H14">
-        <v>28856.62</v>
+        <v>9716.379999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="H15">
-        <v>425.04</v>
+        <v>9169.639999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="H16">
-        <v>1500.5</v>
+        <v>19826.94</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="H17">
-        <v>6664.68</v>
+        <v>17346.97</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="H18">
-        <v>28546.61</v>
+        <v>4961.08</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="H19">
-        <v>2480.22</v>
+        <v>14269.66</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="H20">
-        <v>4962.66</v>
+        <v>12577.48</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="H21">
-        <v>1958.84</v>
+        <v>2971.2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="H22">
-        <v>2485.74</v>
+        <v>29737.28</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="H23">
-        <v>1910.78</v>
+        <v>5779.38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="H24">
-        <v>2386.82</v>
+        <v>22973.04</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="H25">
-        <v>544.9</v>
+        <v>7102.9</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="H26">
-        <v>2181.68</v>
+        <v>261.98</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="H27">
-        <v>3809.76</v>
+        <v>2694.42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="H28">
-        <v>1967.76</v>
+        <v>2952.84</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="H29">
-        <v>888.72</v>
+        <v>1485.52</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="H30">
-        <v>18533.02</v>
+        <v>24609.38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="H31">
-        <v>9279.440000000001</v>
+        <v>2448.94</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="H32">
-        <v>10732.63</v>
+        <v>4345.86</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="H33">
-        <v>492.9</v>
+        <v>26341.52</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="H34">
-        <v>14773.68</v>
+        <v>25631.06</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35">
+        <v>7026.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36">
+        <v>4880.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" t="s">
+        <v>288</v>
+      </c>
+      <c r="H37">
+        <v>45092.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38">
+        <v>4940.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39">
+        <v>20773.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" t="s">
+        <v>291</v>
+      </c>
+      <c r="H40">
+        <v>40135.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" t="s">
+        <v>292</v>
+      </c>
+      <c r="H41">
+        <v>28160.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" t="s">
+        <v>293</v>
+      </c>
+      <c r="H42">
+        <v>3952.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+      <c r="H43">
+        <v>1712.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44">
+        <v>6411.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" t="s">
+        <v>296</v>
+      </c>
+      <c r="H45">
+        <v>1909.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46">
+        <v>4380.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" t="s">
+        <v>298</v>
+      </c>
+      <c r="H47">
+        <v>37736.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" t="s">
+        <v>299</v>
+      </c>
+      <c r="H48">
+        <v>3442.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49">
+        <v>5756.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" t="s">
+        <v>301</v>
+      </c>
+      <c r="H50">
+        <v>29184.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
+        <v>303</v>
+      </c>
+      <c r="H52">
+        <v>2876.64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" t="s">
+        <v>304</v>
+      </c>
+      <c r="H53">
+        <v>523.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" t="s">
+        <v>305</v>
+      </c>
+      <c r="H54">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55">
+        <v>266.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" t="s">
+        <v>306</v>
+      </c>
+      <c r="H56">
+        <v>1394.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" t="s">
+        <v>307</v>
+      </c>
+      <c r="H57">
+        <v>5264.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58" t="s">
+        <v>308</v>
+      </c>
+      <c r="H58">
+        <v>15211.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59">
+        <v>12060.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" t="s">
+        <v>310</v>
+      </c>
+      <c r="H60">
+        <v>28856.62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" t="s">
+        <v>311</v>
+      </c>
+      <c r="H61">
+        <v>425.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" t="s">
+        <v>312</v>
+      </c>
+      <c r="H62">
+        <v>1500.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63">
+        <v>6664.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64">
+        <v>32324.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65">
+        <v>4964.28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" t="s">
+        <v>316</v>
+      </c>
+      <c r="H66">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" t="s">
+        <v>317</v>
+      </c>
+      <c r="H67">
+        <v>1958.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" t="s">
+        <v>318</v>
+      </c>
+      <c r="H68">
+        <v>2485.74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" t="s">
+        <v>319</v>
+      </c>
+      <c r="H69">
+        <v>10428.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" t="s">
+        <v>320</v>
+      </c>
+      <c r="H70">
+        <v>2386.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" t="s">
+        <v>318</v>
+      </c>
+      <c r="H71">
+        <v>2464.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" t="s">
+        <v>320</v>
+      </c>
+      <c r="H72">
+        <v>2181.68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" t="s">
+        <v>321</v>
+      </c>
+      <c r="H73">
+        <v>3809.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" t="s">
+        <v>322</v>
+      </c>
+      <c r="H74">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" t="s">
+        <v>323</v>
+      </c>
+      <c r="H75">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76" t="s">
+        <v>324</v>
+      </c>
+      <c r="H76">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
+        <v>246</v>
+      </c>
+      <c r="G77" t="s">
+        <v>325</v>
+      </c>
+      <c r="H77">
+        <v>9279.440000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" t="s">
+        <v>326</v>
+      </c>
+      <c r="H78">
+        <v>10732.63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" t="s">
+        <v>304</v>
+      </c>
+      <c r="H79">
+        <v>492.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" t="s">
+        <v>327</v>
+      </c>
+      <c r="H80">
+        <v>14773.68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F81" t="s">
+        <v>249</v>
+      </c>
+      <c r="G81" t="s">
+        <v>328</v>
+      </c>
+      <c r="H81">
+        <v>27248.69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" t="s">
+        <v>246</v>
+      </c>
+      <c r="G82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H82">
+        <v>10657.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" t="s">
+        <v>246</v>
+      </c>
+      <c r="G83" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83">
+        <v>17733.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84" t="s">
+        <v>331</v>
+      </c>
+      <c r="H84">
+        <v>12340.99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>134</v>
+      </c>
+      <c r="G85" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85">
+        <v>7444.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" t="s">
+        <v>211</v>
+      </c>
+      <c r="F86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" t="s">
+        <v>306</v>
+      </c>
+      <c r="H86">
+        <v>1427.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" t="s">
+        <v>134</v>
+      </c>
+      <c r="G87" t="s">
+        <v>332</v>
+      </c>
+      <c r="H87">
+        <v>2977.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" t="s">
+        <v>333</v>
+      </c>
+      <c r="H88">
+        <v>9552.200000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H89">
+        <v>1188.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" t="s">
+        <v>215</v>
+      </c>
+      <c r="F90" t="s">
+        <v>246</v>
+      </c>
+      <c r="G90" t="s">
+        <v>335</v>
+      </c>
+      <c r="H90">
+        <v>52327.11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" t="s">
+        <v>246</v>
+      </c>
+      <c r="G91" t="s">
+        <v>336</v>
+      </c>
+      <c r="H91">
+        <v>16188.74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" t="s">
+        <v>251</v>
+      </c>
+      <c r="G92" t="s">
+        <v>337</v>
+      </c>
+      <c r="H92">
+        <v>3553.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" t="s">
+        <v>251</v>
+      </c>
+      <c r="G93" t="s">
+        <v>338</v>
+      </c>
+      <c r="H93">
+        <v>10924.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" t="s">
+        <v>339</v>
+      </c>
+      <c r="H94">
+        <v>10048.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+      <c r="G95" t="s">
+        <v>309</v>
+      </c>
+      <c r="H95">
+        <v>12370.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" t="s">
         <v>114</v>
       </c>
-      <c r="H35">
-        <v>27072.19</v>
+      <c r="E96" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" t="s">
+        <v>246</v>
+      </c>
+      <c r="G96" t="s">
+        <v>340</v>
+      </c>
+      <c r="H96">
+        <v>45154.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" t="s">
+        <v>220</v>
+      </c>
+      <c r="F97" t="s">
+        <v>134</v>
+      </c>
+      <c r="G97" t="s">
+        <v>341</v>
+      </c>
+      <c r="H97">
+        <v>9900.34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98">
+        <v>2442.96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" t="s">
+        <v>222</v>
+      </c>
+      <c r="F99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G99" t="s">
+        <v>319</v>
+      </c>
+      <c r="H99">
+        <v>9928.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" t="s">
+        <v>223</v>
+      </c>
+      <c r="F100" t="s">
+        <v>246</v>
+      </c>
+      <c r="G100" t="s">
+        <v>342</v>
+      </c>
+      <c r="H100">
+        <v>19423.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" t="s">
+        <v>224</v>
+      </c>
+      <c r="F101" t="s">
+        <v>251</v>
+      </c>
+      <c r="G101" t="s">
+        <v>343</v>
+      </c>
+      <c r="H101">
+        <v>7531.98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" t="s">
+        <v>251</v>
+      </c>
+      <c r="G102" t="s">
+        <v>344</v>
+      </c>
+      <c r="H102">
+        <v>14025.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" t="s">
+        <v>224</v>
+      </c>
+      <c r="F103" t="s">
+        <v>251</v>
+      </c>
+      <c r="G103" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103">
+        <v>3342.88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" t="s">
+        <v>225</v>
+      </c>
+      <c r="F104" t="s">
+        <v>246</v>
+      </c>
+      <c r="G104" t="s">
+        <v>346</v>
+      </c>
+      <c r="H104">
+        <v>22390.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" t="s">
+        <v>226</v>
+      </c>
+      <c r="F105" t="s">
+        <v>252</v>
+      </c>
+      <c r="G105" t="s">
+        <v>347</v>
+      </c>
+      <c r="H105">
+        <v>1942.52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" t="s">
+        <v>227</v>
+      </c>
+      <c r="F106" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" t="s">
+        <v>348</v>
+      </c>
+      <c r="H106">
+        <v>24035.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" t="s">
+        <v>246</v>
+      </c>
+      <c r="G107" t="s">
+        <v>349</v>
+      </c>
+      <c r="H107">
+        <v>35763.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" t="s">
+        <v>350</v>
+      </c>
+      <c r="H108">
+        <v>2084.88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109" t="s">
+        <v>134</v>
+      </c>
+      <c r="G109" t="s">
+        <v>351</v>
+      </c>
+      <c r="H109">
+        <v>4883.32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110" t="s">
+        <v>352</v>
+      </c>
+      <c r="H110">
+        <v>6214.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" t="s">
+        <v>353</v>
+      </c>
+      <c r="H111">
+        <v>19411.72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" t="s">
+        <v>251</v>
+      </c>
+      <c r="G112" t="s">
+        <v>354</v>
+      </c>
+      <c r="H112">
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" t="s">
+        <v>251</v>
+      </c>
+      <c r="G113" t="s">
+        <v>355</v>
+      </c>
+      <c r="H113">
+        <v>7359.58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" t="s">
+        <v>231</v>
+      </c>
+      <c r="F114" t="s">
+        <v>251</v>
+      </c>
+      <c r="G114" t="s">
+        <v>356</v>
+      </c>
+      <c r="H114">
+        <v>16323.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" t="s">
+        <v>246</v>
+      </c>
+      <c r="G115" t="s">
+        <v>357</v>
+      </c>
+      <c r="H115">
+        <v>3636.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" t="s">
+        <v>358</v>
+      </c>
+      <c r="H116">
+        <v>9035.440000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" t="s">
+        <v>253</v>
+      </c>
+      <c r="G117" t="s">
+        <v>286</v>
+      </c>
+      <c r="H117">
+        <v>6973.04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" t="s">
+        <v>235</v>
+      </c>
+      <c r="F118" t="s">
+        <v>134</v>
+      </c>
+      <c r="G118" t="s">
+        <v>359</v>
+      </c>
+      <c r="H118">
+        <v>481.08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" t="s">
+        <v>134</v>
+      </c>
+      <c r="G119" t="s">
+        <v>360</v>
+      </c>
+      <c r="H119">
+        <v>394.76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" t="s">
+        <v>361</v>
+      </c>
+      <c r="H120">
+        <v>2039.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" t="s">
+        <v>122</v>
+      </c>
+      <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
+        <v>253</v>
+      </c>
+      <c r="G121" t="s">
+        <v>362</v>
+      </c>
+      <c r="H121">
+        <v>2921.88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" t="s">
+        <v>248</v>
+      </c>
+      <c r="G122" t="s">
+        <v>363</v>
+      </c>
+      <c r="H122">
+        <v>5534.92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
+        <v>254</v>
+      </c>
+      <c r="G123" t="s">
+        <v>364</v>
+      </c>
+      <c r="H123">
+        <v>3208.76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
+        <v>254</v>
+      </c>
+      <c r="G124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H124">
+        <v>1702.04</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" t="s">
+        <v>358</v>
+      </c>
+      <c r="H125">
+        <v>9035.440000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>107</v>
+      </c>
+      <c r="D126" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
+        <v>253</v>
+      </c>
+      <c r="G126" t="s">
+        <v>286</v>
+      </c>
+      <c r="H126">
+        <v>6973.04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" t="s">
+        <v>134</v>
+      </c>
+      <c r="G127" t="s">
+        <v>359</v>
+      </c>
+      <c r="H127">
+        <v>481.08</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" t="s">
+        <v>241</v>
+      </c>
+      <c r="F128" t="s">
+        <v>134</v>
+      </c>
+      <c r="G128" t="s">
+        <v>360</v>
+      </c>
+      <c r="H128">
+        <v>394.76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>87</v>
+      </c>
+      <c r="D129" t="s">
+        <v>122</v>
+      </c>
+      <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
+        <v>253</v>
+      </c>
+      <c r="G129" t="s">
+        <v>361</v>
+      </c>
+      <c r="H129">
+        <v>2039.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" t="s">
+        <v>253</v>
+      </c>
+      <c r="G130" t="s">
+        <v>362</v>
+      </c>
+      <c r="H130">
+        <v>2921.88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" t="s">
+        <v>243</v>
+      </c>
+      <c r="F131" t="s">
+        <v>248</v>
+      </c>
+      <c r="G131" t="s">
+        <v>363</v>
+      </c>
+      <c r="H131">
+        <v>5534.92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E132" t="s">
+        <v>244</v>
+      </c>
+      <c r="F132" t="s">
+        <v>254</v>
+      </c>
+      <c r="G132" t="s">
+        <v>364</v>
+      </c>
+      <c r="H132">
+        <v>3208.76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" t="s">
+        <v>244</v>
+      </c>
+      <c r="F133" t="s">
+        <v>254</v>
+      </c>
+      <c r="G133" t="s">
+        <v>365</v>
+      </c>
+      <c r="H133">
+        <v>1702.04</v>
       </c>
     </row>
   </sheetData>

--- a/称重月报汇总.xlsx
+++ b/称重月报汇总.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_53DDA3F8EE438D2FDD2D4CB725282D8578796EB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61F717E6-DE92-4150-B4F1-74D817CF50CB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="385">
   <si>
     <t>序号</t>
   </si>
@@ -358,6 +364,24 @@
     <t>太原煤气化龙泉能源（7-2宝特火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（6-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（7-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（7-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（7-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业（7-1）</t>
+  </si>
+  <si>
     <t>大同煤矿集团北辛窑煤业有限公司</t>
   </si>
   <si>
@@ -739,9 +763,18 @@
     <t>2025-07-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
   </si>
   <si>
+    <t>2025-07-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
     <t>2025-07-山西焦煤汾西矿业昊兴塬煤业</t>
   </si>
   <si>
+    <t>2025-07-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-07-山西焦煤集团杜家沟煤业</t>
+  </si>
+  <si>
     <t>2025-07-山西煤炭运销集团莲盛有限公司</t>
   </si>
   <si>
@@ -1112,17 +1145,47 @@
   </si>
   <si>
     <t>60车</t>
+  </si>
+  <si>
+    <t>552车</t>
+  </si>
+  <si>
+    <t>737车</t>
+  </si>
+  <si>
+    <t>348车</t>
+  </si>
+  <si>
+    <t>469车</t>
+  </si>
+  <si>
+    <t>115车</t>
+  </si>
+  <si>
+    <t>206车</t>
+  </si>
+  <si>
+    <t>11车</t>
+  </si>
+  <si>
+    <t>1696车</t>
+  </si>
+  <si>
+    <t>344车</t>
+  </si>
+  <si>
+    <t>448车</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1130,8 +1193,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1177,17 +1247,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1225,7 +1303,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1259,6 +1337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1293,9 +1372,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1468,14 +1548,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A85" sqref="A1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1512,22 +1604,22 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H2">
         <v>15769.8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1538,22 +1630,22 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H3">
         <v>3075.84</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1564,22 +1656,22 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H4">
         <v>10918.16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1590,22 +1682,22 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H5">
         <v>1082.94</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1616,22 +1708,22 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H6">
         <v>2468.84</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1642,22 +1734,22 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H7">
         <v>22748.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1668,22 +1760,22 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H8">
         <v>528.74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1694,22 +1786,22 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H9">
         <v>5767.56</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1720,22 +1812,22 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H10">
         <v>11977.36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1746,22 +1838,22 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H11">
         <v>1957.22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1772,22 +1864,22 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H12">
         <v>1958.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1798,22 +1890,22 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H13">
-        <v>34538.77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>34538.769999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1824,22 +1916,22 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H14">
-        <v>9716.379999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>9716.3799999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1850,22 +1942,22 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H15">
-        <v>9169.639999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>9169.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1876,22 +1968,22 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H16">
-        <v>19826.94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>19826.939999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1902,22 +1994,22 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H17">
         <v>17346.97</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1928,22 +2020,22 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H18">
         <v>4961.08</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1954,22 +2046,22 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H19">
         <v>14269.66</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1980,22 +2072,22 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H20">
         <v>12577.48</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2006,22 +2098,22 @@
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H21">
         <v>2971.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2032,22 +2124,22 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H22">
-        <v>29737.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29737.279999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2058,22 +2150,22 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H23">
         <v>5779.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>8</v>
       </c>
@@ -2084,22 +2176,22 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H24">
-        <v>22973.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22973.040000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>9</v>
       </c>
@@ -2110,22 +2202,22 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H25">
         <v>7102.9</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10</v>
       </c>
@@ -2136,22 +2228,22 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H26">
         <v>261.98</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>11</v>
       </c>
@@ -2162,22 +2254,22 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H27">
         <v>2694.42</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>12</v>
       </c>
@@ -2188,22 +2280,22 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H28">
         <v>2952.84</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>13</v>
       </c>
@@ -2214,22 +2306,22 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H29">
         <v>1485.52</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2240,22 +2332,22 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H30">
         <v>24609.38</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>15</v>
       </c>
@@ -2266,22 +2358,22 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H31">
         <v>2448.94</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>16</v>
       </c>
@@ -2292,22 +2384,22 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H32">
-        <v>4345.86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>4345.8599999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>17</v>
       </c>
@@ -2318,22 +2410,22 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H33">
         <v>26341.52</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2344,22 +2436,22 @@
         <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H34">
         <v>25631.06</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2370,22 +2462,22 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H35">
         <v>7026.64</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2396,22 +2488,22 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H36">
-        <v>4880.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>4880.0200000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2422,22 +2514,22 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H37">
         <v>45092.44</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2448,22 +2540,22 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H38">
-        <v>4940.14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>4940.1400000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2474,22 +2566,22 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H39">
-        <v>20773.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20773.900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2500,22 +2592,22 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H40">
-        <v>40135.16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>40135.160000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2526,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="H41">
         <v>28160.14</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2552,22 +2644,22 @@
         <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H42">
         <v>3952.88</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10</v>
       </c>
@@ -2578,22 +2670,22 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H43">
         <v>1712.02</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>11</v>
       </c>
@@ -2604,22 +2696,22 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H44">
         <v>6411.78</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>12</v>
       </c>
@@ -2630,22 +2722,22 @@
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H45">
         <v>1909.46</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2656,22 +2748,22 @@
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G46" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H46">
         <v>4380.38</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2682,22 +2774,22 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="H47">
         <v>37736.6</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2708,22 +2800,22 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G48" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H48">
         <v>3442.2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2734,22 +2826,22 @@
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G49" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="H49">
         <v>5756.2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2760,22 +2852,22 @@
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G50" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H50">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2786,22 +2878,22 @@
         <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H51">
-        <v>2502.76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>2502.7600000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2812,22 +2904,22 @@
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H52">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2838,22 +2930,22 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H53">
         <v>523.46</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>7</v>
       </c>
@@ -2864,22 +2956,22 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G54" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H54">
-        <v>72967.52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>72967.520000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>8</v>
       </c>
@@ -2890,22 +2982,22 @@
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G55" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H55">
         <v>266.44</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>9</v>
       </c>
@@ -2916,22 +3008,22 @@
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F56" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G56" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H56">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>10</v>
       </c>
@@ -2942,22 +3034,22 @@
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H57">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>11</v>
       </c>
@@ -2968,22 +3060,22 @@
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H58">
         <v>15211.08</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2994,22 +3086,22 @@
         <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F59" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H59">
         <v>12060.04</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3020,22 +3112,22 @@
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H60">
         <v>28856.62</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3046,22 +3138,22 @@
         <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F61" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H61">
         <v>425.04</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>4</v>
       </c>
@@ -3072,22 +3164,22 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G62" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H62">
         <v>1500.5</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3098,22 +3190,22 @@
         <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H63">
         <v>6664.68</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3124,22 +3216,22 @@
         <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G64" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H64">
         <v>32324.05</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3150,22 +3242,22 @@
         <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G65" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H65">
         <v>4964.28</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>8</v>
       </c>
@@ -3176,22 +3268,22 @@
         <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H66">
         <v>4962.66</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>9</v>
       </c>
@@ -3202,22 +3294,22 @@
         <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H67">
         <v>1958.84</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>10</v>
       </c>
@@ -3228,22 +3320,22 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H68">
-        <v>2485.74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>2485.7399999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3254,22 +3346,22 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G69" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H69">
-        <v>10428.96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>10428.959999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>12</v>
       </c>
@@ -3280,22 +3372,22 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H70">
-        <v>2386.82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>2386.8200000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>13</v>
       </c>
@@ -3306,22 +3398,22 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H71">
         <v>2464.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3332,22 +3424,22 @@
         <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F72" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H72">
-        <v>2181.68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>2181.6799999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>15</v>
       </c>
@@ -3358,22 +3450,22 @@
         <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F73" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G73" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H73">
         <v>3809.76</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>16</v>
       </c>
@@ -3384,22 +3476,22 @@
         <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F74" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H74">
         <v>1967.76</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>17</v>
       </c>
@@ -3410,22 +3502,22 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G75" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H75">
         <v>888.72</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>18</v>
       </c>
@@ -3436,22 +3528,22 @@
         <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G76" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H76">
         <v>18533.02</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>19</v>
       </c>
@@ -3462,22 +3554,22 @@
         <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G77" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H77">
-        <v>9279.440000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>9279.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>20</v>
       </c>
@@ -3488,22 +3580,22 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G78" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H78">
         <v>10732.63</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>21</v>
       </c>
@@ -3514,22 +3606,22 @@
         <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F79" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H79">
         <v>492.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>22</v>
       </c>
@@ -3540,22 +3632,22 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G80" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H80">
         <v>14773.68</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>23</v>
       </c>
@@ -3566,22 +3658,22 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H81">
         <v>27248.69</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3592,22 +3684,22 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G82" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H82">
         <v>10657.6</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3618,22 +3710,22 @@
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G83" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H83">
         <v>17733.2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3644,22 +3736,22 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G84" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H84">
         <v>12340.99</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>4</v>
       </c>
@@ -3670,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H85">
         <v>7444.38</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>5</v>
       </c>
@@ -3696,22 +3788,22 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G86" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H86">
         <v>1427.8</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>6</v>
       </c>
@@ -3722,22 +3814,22 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H87">
         <v>2977.34</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>7</v>
       </c>
@@ -3748,22 +3840,22 @@
         <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H88">
-        <v>9552.200000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>9552.2000000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>8</v>
       </c>
@@ -3774,22 +3866,22 @@
         <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H89">
-        <v>1188.36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>1188.3599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>9</v>
       </c>
@@ -3800,22 +3892,22 @@
         <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G90" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H90">
         <v>52327.11</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>10</v>
       </c>
@@ -3826,22 +3918,22 @@
         <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F91" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G91" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H91">
         <v>16188.74</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>11</v>
       </c>
@@ -3852,22 +3944,22 @@
         <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F92" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G92" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H92">
         <v>3553.6</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>12</v>
       </c>
@@ -3878,22 +3970,22 @@
         <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F93" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G93" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H93">
         <v>10924.8</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3904,22 +3996,22 @@
         <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F94" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G94" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H94">
         <v>10048.06</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3930,22 +4022,22 @@
         <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F95" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G95" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H95">
         <v>12370.01</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3956,22 +4048,22 @@
         <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G96" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H96">
         <v>45154.5</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3982,22 +4074,22 @@
         <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G97" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H97">
         <v>9900.34</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>3</v>
       </c>
@@ -4008,22 +4100,22 @@
         <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G98" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H98">
         <v>2442.96</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>4</v>
       </c>
@@ -4034,22 +4126,22 @@
         <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G99" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H99">
         <v>9928.9</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>5</v>
       </c>
@@ -4060,22 +4152,22 @@
         <v>88</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F100" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H100">
         <v>19423.88</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>6</v>
       </c>
@@ -4086,22 +4178,22 @@
         <v>91</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E101" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H101">
         <v>7531.98</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>7</v>
       </c>
@@ -4112,22 +4204,22 @@
         <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F102" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G102" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H102">
         <v>14025.5</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>8</v>
       </c>
@@ -4138,22 +4230,22 @@
         <v>98</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F103" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G103" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H103">
         <v>3342.88</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>9</v>
       </c>
@@ -4164,22 +4256,22 @@
         <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F104" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G104" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H104">
         <v>22390.22</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>10</v>
       </c>
@@ -4190,22 +4282,22 @@
         <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G105" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H105">
         <v>1942.52</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4216,22 +4308,22 @@
         <v>93</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G106" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H106">
         <v>24035.26</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4242,22 +4334,22 @@
         <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E107" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G107" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H107">
         <v>35763.42</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4268,22 +4360,22 @@
         <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H108">
         <v>2084.88</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4294,22 +4386,22 @@
         <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E109" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H109">
         <v>4883.32</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>5</v>
       </c>
@@ -4320,22 +4412,22 @@
         <v>88</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E110" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F110" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G110" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H110">
         <v>6214.1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>6</v>
       </c>
@@ -4346,22 +4438,22 @@
         <v>104</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E111" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F111" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G111" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H111">
         <v>19411.72</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>7</v>
       </c>
@@ -4372,22 +4464,22 @@
         <v>97</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E112" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F112" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G112" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H112">
         <v>55.72</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>8</v>
       </c>
@@ -4398,22 +4490,22 @@
         <v>98</v>
       </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E113" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G113" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H113">
         <v>7359.58</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>9</v>
       </c>
@@ -4424,22 +4516,22 @@
         <v>105</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E114" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G114" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H114">
         <v>16323.1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>10</v>
       </c>
@@ -4450,22 +4542,22 @@
         <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F115" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G115" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H115">
         <v>3636.5</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4476,22 +4568,22 @@
         <v>101</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F116" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G116" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="H116">
-        <v>9035.440000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>9035.44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>2</v>
       </c>
@@ -4502,22 +4594,22 @@
         <v>107</v>
       </c>
       <c r="D117" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F117" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G117" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H117">
         <v>6973.04</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>3</v>
       </c>
@@ -4528,22 +4620,22 @@
         <v>108</v>
       </c>
       <c r="D118" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G118" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H118">
         <v>481.08</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>4</v>
       </c>
@@ -4554,22 +4646,22 @@
         <v>109</v>
       </c>
       <c r="D119" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G119" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H119">
         <v>394.76</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>5</v>
       </c>
@@ -4580,22 +4672,22 @@
         <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F120" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G120" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H120">
         <v>2039.5</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>6</v>
       </c>
@@ -4606,22 +4698,22 @@
         <v>110</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F121" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G121" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H121">
         <v>2921.88</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>7</v>
       </c>
@@ -4632,22 +4724,22 @@
         <v>111</v>
       </c>
       <c r="D122" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F122" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G122" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H122">
         <v>5534.92</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>8</v>
       </c>
@@ -4658,22 +4750,22 @@
         <v>112</v>
       </c>
       <c r="D123" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E123" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F123" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G123" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H123">
         <v>3208.76</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>9</v>
       </c>
@@ -4684,22 +4776,22 @@
         <v>113</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E124" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G124" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="H124">
         <v>1702.04</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4710,22 +4802,22 @@
         <v>101</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G125" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="H125">
-        <v>9035.440000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>15752.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>2</v>
       </c>
@@ -4733,25 +4825,25 @@
         <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D126" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E126" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G126" t="s">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="H126">
-        <v>6973.04</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21117.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>3</v>
       </c>
@@ -4759,25 +4851,25 @@
         <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D127" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="G127" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="H127">
-        <v>481.08</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>9975.32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>4</v>
       </c>
@@ -4785,25 +4877,25 @@
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D128" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="G128" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="H128">
-        <v>394.76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>6973.04</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4811,25 +4903,25 @@
         <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G129" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="H129">
-        <v>2039.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>13556.36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>6</v>
       </c>
@@ -4837,25 +4929,25 @@
         <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D130" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="G130" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H130">
-        <v>2921.88</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>3481.32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>7</v>
       </c>
@@ -4863,25 +4955,25 @@
         <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="G131" t="s">
         <v>363</v>
       </c>
       <c r="H131">
-        <v>5534.92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>59.72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>8</v>
       </c>
@@ -4889,25 +4981,25 @@
         <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E132" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="G132" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="H132">
-        <v>3208.76</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>6190.48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>9</v>
       </c>
@@ -4915,25 +5007,182 @@
         <v>17</v>
       </c>
       <c r="C133" t="s">
+        <v>118</v>
+      </c>
+      <c r="D133" t="s">
+        <v>124</v>
+      </c>
+      <c r="E133" t="s">
+        <v>249</v>
+      </c>
+      <c r="F133" t="s">
+        <v>140</v>
+      </c>
+      <c r="G133" t="s">
+        <v>381</v>
+      </c>
+      <c r="H133">
+        <v>330.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>119</v>
+      </c>
+      <c r="D134" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" t="s">
+        <v>250</v>
+      </c>
+      <c r="F134" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" t="s">
+        <v>268</v>
+      </c>
+      <c r="H134">
+        <v>2425.16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" t="s">
+        <v>251</v>
+      </c>
+      <c r="F135" t="s">
+        <v>262</v>
+      </c>
+      <c r="G135" t="s">
+        <v>370</v>
+      </c>
+      <c r="H135">
+        <v>2039.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" t="s">
+        <v>251</v>
+      </c>
+      <c r="F136" t="s">
+        <v>262</v>
+      </c>
+      <c r="G136" t="s">
+        <v>382</v>
+      </c>
+      <c r="H136">
+        <v>48421.96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137" t="s">
+        <v>252</v>
+      </c>
+      <c r="F137" t="s">
+        <v>257</v>
+      </c>
+      <c r="G137" t="s">
+        <v>383</v>
+      </c>
+      <c r="H137">
+        <v>9990.0400000000009</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" t="s">
+        <v>253</v>
+      </c>
+      <c r="F138" t="s">
+        <v>263</v>
+      </c>
+      <c r="G138" t="s">
+        <v>384</v>
+      </c>
+      <c r="H138">
+        <v>12714.02</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
         <v>113</v>
       </c>
-      <c r="D133" t="s">
-        <v>126</v>
-      </c>
-      <c r="E133" t="s">
-        <v>244</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
-      </c>
-      <c r="G133" t="s">
-        <v>365</v>
-      </c>
-      <c r="H133">
-        <v>1702.04</v>
+      <c r="D139" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" t="s">
+        <v>253</v>
+      </c>
+      <c r="F139" t="s">
+        <v>263</v>
+      </c>
+      <c r="G139" t="s">
+        <v>302</v>
+      </c>
+      <c r="H139">
+        <v>3599.92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/称重月报汇总.xlsx
+++ b/称重月报汇总.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29517"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_678D03E9892B0E17FD2D4C523D29104F78794D24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF83037-61AB-428A-BA5F-69E60B3464B5}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="439">
   <si>
     <t>序号</t>
   </si>
@@ -379,6 +373,9 @@
     <t>大同煤矿集团北辛窑煤业有限公司2025（11-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025（11-1）</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
   </si>
   <si>
@@ -883,6 +880,9 @@
     <t>2025-11-大同煤矿集团北辛窑煤业有限公司2025（11-1火车）</t>
   </si>
   <si>
+    <t>2025-11-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025（11-1）</t>
+  </si>
+  <si>
     <t>2025-11-晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
   </si>
   <si>
@@ -1300,7 +1300,10 @@
     <t>1089车</t>
   </si>
   <si>
-    <t>158车</t>
+    <t>594车</t>
+  </si>
+  <si>
+    <t>126车</t>
   </si>
   <si>
     <t>231车</t>
@@ -1309,27 +1312,36 @@
     <t>55车</t>
   </si>
   <si>
-    <t>47车</t>
+    <t>163车</t>
+  </si>
+  <si>
+    <t>96车</t>
+  </si>
+  <si>
+    <t>579车</t>
   </si>
   <si>
     <t>362车</t>
   </si>
   <si>
-    <t>1431车</t>
+    <t>1596车</t>
   </si>
   <si>
     <t>145车</t>
+  </si>
+  <si>
+    <t>639车</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1337,15 +1349,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1391,25 +1396,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1447,7 +1444,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1481,7 +1478,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1516,10 +1512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1692,17 +1687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1742,16 +1734,16 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H2">
         <v>3442.2</v>
@@ -1760,7 +1752,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1771,16 +1763,16 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H3">
         <v>5756.2</v>
@@ -1789,7 +1781,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1800,16 +1792,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H4">
         <v>29184.35</v>
@@ -1818,7 +1810,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1829,25 +1821,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H5">
-        <v>2502.7600000000002</v>
+        <v>2502.76</v>
       </c>
       <c r="I5">
         <v>4422</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1858,16 +1850,16 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H6">
         <v>2876.64</v>
@@ -1876,7 +1868,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1887,16 +1879,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H7">
         <v>523.46</v>
@@ -1905,7 +1897,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1916,25 +1908,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H8">
-        <v>72967.520000000004</v>
+        <v>72967.52</v>
       </c>
       <c r="I8">
         <v>3561</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1945,16 +1937,16 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H9">
         <v>266.44</v>
@@ -1963,7 +1955,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1974,16 +1966,16 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H10">
         <v>1394.18</v>
@@ -1992,7 +1984,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2003,16 +1995,16 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H11">
         <v>5264.84</v>
@@ -2021,7 +2013,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2032,16 +2024,16 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H12">
         <v>15211.08</v>
@@ -2050,7 +2042,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2061,16 +2053,16 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H13">
         <v>12060.04</v>
@@ -2079,7 +2071,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2090,16 +2082,16 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H14">
         <v>28856.62</v>
@@ -2108,7 +2100,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2119,16 +2111,16 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H15">
         <v>425.04</v>
@@ -2137,7 +2129,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2148,16 +2140,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H16">
         <v>1500.5</v>
@@ -2166,7 +2158,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2177,16 +2169,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H17">
         <v>6664.68</v>
@@ -2195,7 +2187,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2206,16 +2198,16 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H18">
         <v>32324.05</v>
@@ -2224,7 +2216,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2235,16 +2227,16 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H19">
         <v>4964.28</v>
@@ -2253,7 +2245,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2264,16 +2256,16 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H20">
         <v>4962.66</v>
@@ -2282,7 +2274,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2293,16 +2285,16 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H21">
         <v>1958.84</v>
@@ -2311,7 +2303,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2322,25 +2314,25 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H22">
-        <v>2485.7399999999998</v>
+        <v>2485.74</v>
       </c>
       <c r="I22">
         <v>3912</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2351,25 +2343,25 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H23">
-        <v>10428.959999999999</v>
+        <v>10428.96</v>
       </c>
       <c r="I23">
         <v>4112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2380,25 +2372,25 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
         <v>141</v>
       </c>
-      <c r="E24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H24">
-        <v>2386.8200000000002</v>
+        <v>2386.82</v>
       </c>
       <c r="I24">
         <v>4004</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>13</v>
       </c>
@@ -2409,16 +2401,16 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
         <v>141</v>
       </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
-      </c>
       <c r="G25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H25">
         <v>2464.5</v>
@@ -2427,7 +2419,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2438,25 +2430,25 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H26">
-        <v>2181.6799999999998</v>
+        <v>2181.68</v>
       </c>
       <c r="I26">
         <v>3508</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>15</v>
       </c>
@@ -2467,16 +2459,16 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H27">
         <v>3809.76</v>
@@ -2485,7 +2477,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>16</v>
       </c>
@@ -2496,16 +2488,16 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G28" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H28">
         <v>1967.76</v>
@@ -2514,7 +2506,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>17</v>
       </c>
@@ -2525,16 +2517,16 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H29">
         <v>888.72</v>
@@ -2543,7 +2535,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>18</v>
       </c>
@@ -2554,16 +2546,16 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H30">
         <v>18533.02</v>
@@ -2572,7 +2564,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>19</v>
       </c>
@@ -2583,25 +2575,25 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H31">
-        <v>9279.44</v>
+        <v>9279.440000000001</v>
       </c>
       <c r="I31">
         <v>2913</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2612,16 +2604,16 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H32">
         <v>10732.63</v>
@@ -2630,7 +2622,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>21</v>
       </c>
@@ -2641,16 +2633,16 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H33">
         <v>492.9</v>
@@ -2659,7 +2651,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>22</v>
       </c>
@@ -2670,16 +2662,16 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H34">
         <v>14773.68</v>
@@ -2688,7 +2680,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>23</v>
       </c>
@@ -2699,16 +2691,16 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H35">
         <v>27248.69</v>
@@ -2717,7 +2709,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2728,16 +2720,16 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H36">
         <v>10657.6</v>
@@ -2746,7 +2738,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2757,16 +2749,16 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H37">
         <v>17733.2</v>
@@ -2775,7 +2767,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2786,16 +2778,16 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H38">
         <v>12340.99</v>
@@ -2804,7 +2796,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2815,16 +2807,16 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H39">
         <v>7444.38</v>
@@ -2833,7 +2825,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2844,16 +2836,16 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H40">
         <v>1427.8</v>
@@ -2862,7 +2854,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>6</v>
       </c>
@@ -2873,16 +2865,16 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H41">
         <v>2977.34</v>
@@ -2891,7 +2883,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>7</v>
       </c>
@@ -2902,25 +2894,25 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H42">
-        <v>9552.2000000000007</v>
+        <v>9552.200000000001</v>
       </c>
       <c r="I42">
         <v>4176</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>8</v>
       </c>
@@ -2931,25 +2923,25 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" t="s">
         <v>141</v>
       </c>
-      <c r="E43" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" t="s">
-        <v>140</v>
-      </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H43">
-        <v>1188.3599999999999</v>
+        <v>1188.36</v>
       </c>
       <c r="I43">
         <v>3944</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>9</v>
       </c>
@@ -2960,16 +2952,16 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H44">
         <v>52327.11</v>
@@ -2978,7 +2970,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2989,16 +2981,16 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H45">
         <v>16188.74</v>
@@ -3007,7 +2999,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>11</v>
       </c>
@@ -3018,16 +3010,16 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H46">
         <v>3553.6</v>
@@ -3036,7 +3028,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>12</v>
       </c>
@@ -3047,16 +3039,16 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H47">
         <v>10924.8</v>
@@ -3065,7 +3057,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>13</v>
       </c>
@@ -3076,16 +3068,16 @@
         <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H48">
         <v>10048.06</v>
@@ -3094,7 +3086,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3105,16 +3097,16 @@
         <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H49">
         <v>12370.01</v>
@@ -3123,7 +3115,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3134,16 +3126,16 @@
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H50">
         <v>45154.5</v>
@@ -3152,7 +3144,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3163,16 +3155,16 @@
         <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H51">
         <v>9900.34</v>
@@ -3181,7 +3173,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3192,16 +3184,16 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H52">
         <v>2442.96</v>
@@ -3210,7 +3202,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3221,16 +3213,16 @@
         <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H53">
         <v>9928.9</v>
@@ -3239,7 +3231,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>5</v>
       </c>
@@ -3250,16 +3242,16 @@
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G54" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H54">
         <v>19423.88</v>
@@ -3268,7 +3260,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3279,16 +3271,16 @@
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G55" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H55">
         <v>7531.98</v>
@@ -3297,7 +3289,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>7</v>
       </c>
@@ -3308,16 +3300,16 @@
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G56" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H56">
         <v>14025.5</v>
@@ -3326,7 +3318,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>8</v>
       </c>
@@ -3337,16 +3329,16 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G57" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H57">
         <v>3342.88</v>
@@ -3355,7 +3347,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>9</v>
       </c>
@@ -3366,16 +3358,16 @@
         <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G58" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H58">
         <v>22390.22</v>
@@ -3384,7 +3376,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>10</v>
       </c>
@@ -3395,22 +3387,22 @@
         <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H59">
         <v>1942.52</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3421,16 +3413,16 @@
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G60" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H60">
         <v>24035.26</v>
@@ -3439,7 +3431,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3450,16 +3442,16 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H61">
         <v>35763.42</v>
@@ -3468,7 +3460,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3479,16 +3471,16 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H62">
         <v>2084.88</v>
@@ -3497,7 +3489,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3508,16 +3500,16 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H63">
         <v>4883.32</v>
@@ -3526,7 +3518,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>5</v>
       </c>
@@ -3537,16 +3529,16 @@
         <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G64" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H64">
         <v>6214.1</v>
@@ -3555,7 +3547,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>6</v>
       </c>
@@ -3566,16 +3558,16 @@
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H65">
         <v>19411.72</v>
@@ -3584,7 +3576,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>7</v>
       </c>
@@ -3595,16 +3587,16 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G66" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H66">
         <v>55.72</v>
@@ -3613,7 +3605,7 @@
         <v>4658</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>8</v>
       </c>
@@ -3624,16 +3616,16 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G67" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H67">
         <v>7359.58</v>
@@ -3642,7 +3634,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>9</v>
       </c>
@@ -3653,16 +3645,16 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H68">
         <v>16323.1</v>
@@ -3671,7 +3663,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>10</v>
       </c>
@@ -3682,16 +3674,16 @@
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H69">
         <v>3636.5</v>
@@ -3700,7 +3692,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3711,16 +3703,16 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H70">
         <v>37144.79</v>
@@ -3729,7 +3721,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3740,25 +3732,25 @@
         <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G71" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H71">
-        <v>20037.009999999998</v>
+        <v>20037.01</v>
       </c>
       <c r="I71">
         <v>3913</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3769,16 +3761,16 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H72">
         <v>1581.06</v>
@@ -3787,7 +3779,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>4</v>
       </c>
@@ -3798,22 +3790,22 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G73" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H73">
         <v>3467.38</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>5</v>
       </c>
@@ -3824,16 +3816,16 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H74">
         <v>3629.18</v>
@@ -3842,7 +3834,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>6</v>
       </c>
@@ -3853,22 +3845,22 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H75">
         <v>278.68</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>7</v>
       </c>
@@ -3879,16 +3871,16 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H76">
         <v>866.28</v>
@@ -3897,7 +3889,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3908,16 +3900,16 @@
         <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H77">
         <v>20408.68</v>
@@ -3926,7 +3918,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>9</v>
       </c>
@@ -3937,25 +3929,25 @@
         <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H78">
-        <v>10017.030000000001</v>
+        <v>10017.03</v>
       </c>
       <c r="I78">
         <v>3910</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>10</v>
       </c>
@@ -3966,16 +3958,16 @@
         <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H79">
         <v>3386.52</v>
@@ -3984,7 +3976,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>11</v>
       </c>
@@ -3995,25 +3987,25 @@
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G80" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H80">
-        <v>7366.6660000000002</v>
+        <v>7366.666</v>
       </c>
       <c r="I80">
         <v>3930</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>12</v>
       </c>
@@ -4024,16 +4016,16 @@
         <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G81" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H81">
         <v>1605.86</v>
@@ -4042,7 +4034,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4053,16 +4045,16 @@
         <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G82" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H82">
         <v>15752.24</v>
@@ -4071,7 +4063,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4082,16 +4074,16 @@
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G83" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H83">
         <v>21117.8</v>
@@ -4100,7 +4092,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4111,16 +4103,16 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G84" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H84">
         <v>9975.32</v>
@@ -4129,7 +4121,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4140,16 +4132,16 @@
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H85">
         <v>6973.04</v>
@@ -4158,7 +4150,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>5</v>
       </c>
@@ -4169,16 +4161,16 @@
         <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H86">
         <v>13556.36</v>
@@ -4187,7 +4179,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4198,16 +4190,16 @@
         <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G87" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H87">
         <v>3481.32</v>
@@ -4216,7 +4208,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>7</v>
       </c>
@@ -4227,16 +4219,16 @@
         <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G88" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H88">
         <v>59.72</v>
@@ -4245,7 +4237,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>8</v>
       </c>
@@ -4256,16 +4248,16 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G89" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H89">
         <v>6190.48</v>
@@ -4274,7 +4266,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>9</v>
       </c>
@@ -4285,16 +4277,16 @@
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G90" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H90">
         <v>330.1</v>
@@ -4303,7 +4295,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>10</v>
       </c>
@@ -4314,16 +4306,16 @@
         <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G91" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H91">
         <v>2425.16</v>
@@ -4332,7 +4324,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>11</v>
       </c>
@@ -4343,16 +4335,16 @@
         <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G92" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H92">
         <v>2039.5</v>
@@ -4361,7 +4353,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>12</v>
       </c>
@@ -4372,16 +4364,16 @@
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H93">
         <v>48421.96</v>
@@ -4390,7 +4382,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4401,25 +4393,25 @@
         <v>80</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F94" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G94" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H94">
-        <v>9990.0400000000009</v>
+        <v>9990.040000000001</v>
       </c>
       <c r="I94">
         <v>3985</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4430,16 +4422,16 @@
         <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F95" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G95" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H95">
         <v>12714.02</v>
@@ -4448,7 +4440,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>15</v>
       </c>
@@ -4459,16 +4451,16 @@
         <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F96" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G96" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H96">
         <v>3599.92</v>
@@ -4477,7 +4469,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4488,16 +4480,16 @@
         <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G97" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H97">
         <v>4415.76</v>
@@ -4506,7 +4498,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>2</v>
       </c>
@@ -4517,16 +4509,16 @@
         <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H98">
         <v>35022.82</v>
@@ -4535,7 +4527,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>3</v>
       </c>
@@ -4546,16 +4538,16 @@
         <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H99">
         <v>39938.26</v>
@@ -4564,7 +4556,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>4</v>
       </c>
@@ -4575,16 +4567,16 @@
         <v>94</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G100" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H100">
         <v>24320.87</v>
@@ -4593,7 +4585,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>5</v>
       </c>
@@ -4604,16 +4596,16 @@
         <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G101" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H101">
         <v>2888.8</v>
@@ -4622,7 +4614,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>6</v>
       </c>
@@ -4633,25 +4625,25 @@
         <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G102" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H102">
-        <v>1168.9000000000001</v>
+        <v>1168.9</v>
       </c>
       <c r="I102">
         <v>3137</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>7</v>
       </c>
@@ -4662,16 +4654,16 @@
         <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G103" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H103">
         <v>1708.18</v>
@@ -4680,7 +4672,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>8</v>
       </c>
@@ -4691,16 +4683,16 @@
         <v>91</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H104">
         <v>7118.22</v>
@@ -4709,7 +4701,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>9</v>
       </c>
@@ -4720,16 +4712,16 @@
         <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F105" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G105" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H105">
         <v>19512.04</v>
@@ -4738,7 +4730,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>10</v>
       </c>
@@ -4749,16 +4741,16 @@
         <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F106" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G106" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H106">
         <v>19961.7</v>
@@ -4767,7 +4759,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>11</v>
       </c>
@@ -4778,25 +4770,25 @@
         <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G107" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H107">
-        <v>4755.4799999999996</v>
+        <v>4755.48</v>
       </c>
       <c r="I107">
         <v>4595</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4807,16 +4799,16 @@
         <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G108" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H108">
         <v>3608.98</v>
@@ -4825,7 +4817,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4836,16 +4828,16 @@
         <v>84</v>
       </c>
       <c r="D109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F109" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G109" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H109">
         <v>6876.38</v>
@@ -4854,7 +4846,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>2</v>
       </c>
@@ -4865,16 +4857,16 @@
         <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G110" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H110">
         <v>3472.02</v>
@@ -4883,7 +4875,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>3</v>
       </c>
@@ -4894,16 +4886,16 @@
         <v>94</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G111" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H111">
         <v>19608</v>
@@ -4912,7 +4904,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>4</v>
       </c>
@@ -4923,16 +4915,16 @@
         <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H112">
         <v>2186.56</v>
@@ -4941,7 +4933,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>5</v>
       </c>
@@ -4952,16 +4944,16 @@
         <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G113" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H113">
         <v>2873.1</v>
@@ -4970,7 +4962,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>6</v>
       </c>
@@ -4981,16 +4973,16 @@
         <v>104</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G114" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H114">
         <v>1810.92</v>
@@ -4999,7 +4991,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>7</v>
       </c>
@@ -5010,16 +5002,16 @@
         <v>98</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F115" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G115" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H115">
         <v>32347.5</v>
@@ -5028,7 +5020,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>8</v>
       </c>
@@ -5039,16 +5031,16 @@
         <v>105</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G116" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H116">
         <v>6814.36</v>
@@ -5057,7 +5049,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>9</v>
       </c>
@@ -5068,16 +5060,16 @@
         <v>106</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F117" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G117" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H117">
         <v>17764.88</v>
@@ -5086,7 +5078,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>10</v>
       </c>
@@ -5097,16 +5089,16 @@
         <v>107</v>
       </c>
       <c r="D118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G118" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H118">
         <v>39805.19</v>
@@ -5115,7 +5107,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>11</v>
       </c>
@@ -5126,16 +5118,16 @@
         <v>108</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G119" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H119">
         <v>3698.82</v>
@@ -5144,7 +5136,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>12</v>
       </c>
@@ -5155,16 +5147,16 @@
         <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F120" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G120" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H120">
         <v>3976.24</v>
@@ -5173,7 +5165,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>13</v>
       </c>
@@ -5184,16 +5176,16 @@
         <v>109</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G121" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H121">
         <v>142.1</v>
@@ -5202,7 +5194,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>1</v>
       </c>
@@ -5213,16 +5205,16 @@
         <v>110</v>
       </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F122" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H122">
         <v>3409.48</v>
@@ -5231,7 +5223,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>2</v>
       </c>
@@ -5242,16 +5234,16 @@
         <v>84</v>
       </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F123" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G123" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H123">
         <v>4793.96</v>
@@ -5260,7 +5252,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>3</v>
       </c>
@@ -5271,25 +5263,25 @@
         <v>101</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F124" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H124">
-        <v>17268.599999999999</v>
+        <v>17268.6</v>
       </c>
       <c r="I124">
         <v>2990</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>4</v>
       </c>
@@ -5300,16 +5292,16 @@
         <v>111</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G125" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H125">
         <v>4689.5</v>
@@ -5318,7 +5310,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>5</v>
       </c>
@@ -5329,16 +5321,16 @@
         <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G126" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H126">
         <v>553.74</v>
@@ -5347,7 +5339,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>6</v>
       </c>
@@ -5358,25 +5350,25 @@
         <v>113</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G127" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H127">
-        <v>2462.8200000000002</v>
+        <v>2462.82</v>
       </c>
       <c r="I127">
         <v>3725</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>7</v>
       </c>
@@ -5387,16 +5379,16 @@
         <v>114</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H128">
         <v>3986.94</v>
@@ -5405,7 +5397,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>8</v>
       </c>
@@ -5416,16 +5408,16 @@
         <v>115</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G129" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H129">
         <v>3008.02</v>
@@ -5434,7 +5426,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>9</v>
       </c>
@@ -5445,25 +5437,25 @@
         <v>116</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F130" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G130" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H130">
-        <v>31628.560000000001</v>
+        <v>31628.56</v>
       </c>
       <c r="I130">
         <v>3086</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>10</v>
       </c>
@@ -5474,16 +5466,16 @@
         <v>105</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F131" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G131" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H131">
         <v>13495.52</v>
@@ -5492,7 +5484,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>11</v>
       </c>
@@ -5503,16 +5495,16 @@
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F132" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G132" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H132">
         <v>3539.67</v>
@@ -5521,7 +5513,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>12</v>
       </c>
@@ -5532,16 +5524,16 @@
         <v>117</v>
       </c>
       <c r="D133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F133" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G133" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H133">
         <v>47647.41</v>
@@ -5550,7 +5542,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>13</v>
       </c>
@@ -5561,25 +5553,25 @@
         <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F134" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G134" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H134">
-        <v>9939.5400000000009</v>
+        <v>9939.540000000001</v>
       </c>
       <c r="I134">
         <v>4623</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>1</v>
       </c>
@@ -5590,25 +5582,25 @@
         <v>110</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G135" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H135">
         <v>31215.66</v>
       </c>
       <c r="I135">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>2</v>
       </c>
@@ -5619,22 +5611,25 @@
         <v>118</v>
       </c>
       <c r="D136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F136" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G136" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H136">
-        <v>4537.34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+        <v>17101.24</v>
+      </c>
+      <c r="I136">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>3</v>
       </c>
@@ -5645,25 +5640,25 @@
         <v>119</v>
       </c>
       <c r="D137" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F137" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G137" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H137">
-        <v>6497.44</v>
+        <v>3652.22</v>
       </c>
       <c r="I137">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>4</v>
       </c>
@@ -5671,28 +5666,28 @@
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F138" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H138">
-        <v>1635.34</v>
+        <v>6497.44</v>
       </c>
       <c r="I138">
-        <v>3923</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>5</v>
       </c>
@@ -5700,28 +5695,28 @@
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G139" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="H139">
-        <v>2436.3200000000002</v>
+        <v>1635.34</v>
       </c>
       <c r="I139">
-        <v>4144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>6</v>
       </c>
@@ -5732,25 +5727,25 @@
         <v>121</v>
       </c>
       <c r="D140" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G140" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="H140">
-        <v>2451.6</v>
+        <v>4961.72</v>
       </c>
       <c r="I140">
-        <v>3497</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>7</v>
       </c>
@@ -5761,25 +5756,25 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G141" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="H141">
-        <v>2478.34</v>
+        <v>2931.86</v>
       </c>
       <c r="I141">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>8</v>
       </c>
@@ -5790,25 +5785,25 @@
         <v>123</v>
       </c>
       <c r="D142" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G142" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H142">
-        <v>1382.76</v>
+        <v>2971.98</v>
       </c>
       <c r="I142">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>9</v>
       </c>
@@ -5816,28 +5811,28 @@
         <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F143" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="G143" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="H143">
-        <v>7419.5</v>
+        <v>1649.08</v>
       </c>
       <c r="I143">
-        <v>3842</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>10</v>
       </c>
@@ -5845,28 +5840,28 @@
         <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F144" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G144" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H144">
-        <v>10406.74</v>
+        <v>16370.44</v>
       </c>
       <c r="I144">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>11</v>
       </c>
@@ -5877,25 +5872,25 @@
         <v>125</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G145" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H145">
-        <v>44291.92</v>
+        <v>10406.74</v>
       </c>
       <c r="I145">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>12</v>
       </c>
@@ -5906,25 +5901,25 @@
         <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G146" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="H146">
-        <v>3710.08</v>
+        <v>49430.9</v>
       </c>
       <c r="I146">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>13</v>
       </c>
@@ -5932,28 +5927,28 @@
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G147" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H147">
-        <v>3393.76</v>
+        <v>3710.08</v>
       </c>
       <c r="I147">
-        <v>4838</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>14</v>
       </c>
@@ -5961,28 +5956,28 @@
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F148" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G148" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="H148">
-        <v>4088.82</v>
+        <v>3393.76</v>
       </c>
       <c r="I148">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>15</v>
       </c>
@@ -5996,23 +5991,51 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G149" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="H149">
-        <v>10627.07</v>
+        <v>4088.82</v>
       </c>
       <c r="I149">
-        <v>5344</v>
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>129</v>
+      </c>
+      <c r="D150" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" t="s">
+        <v>301</v>
+      </c>
+      <c r="F150" t="s">
+        <v>312</v>
+      </c>
+      <c r="G150" t="s">
+        <v>438</v>
+      </c>
+      <c r="H150">
+        <v>19434.85</v>
+      </c>
+      <c r="I150">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>